--- a/output/1Y_P96_1VAL-D.xlsx
+++ b/output/1Y_P96_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>555.3859</v>
       </c>
-      <c r="G2" s="1">
-        <v>555.3859</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.182500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0055</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.182500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E3" s="1">
+        <v>555.3859</v>
+      </c>
       <c r="F3" s="1">
         <v>551.3773</v>
       </c>
-      <c r="G3" s="1">
-        <v>1106.7632</v>
-      </c>
       <c r="H3" s="1">
-        <v>19968.5536</v>
+        <v>10020.4382</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0707</v>
+        <v>10020.4382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0055</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19968.5536</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E4" s="1">
+        <v>1106.7632</v>
+      </c>
       <c r="F4" s="1">
         <v>547.6301</v>
       </c>
-      <c r="G4" s="1">
-        <v>1654.3933</v>
-      </c>
       <c r="H4" s="1">
-        <v>30053.3783</v>
+        <v>20105.2388</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1335</v>
+        <v>20105.2388</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0707</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30053.3783</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0028</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E5" s="1">
+        <v>1654.3933</v>
+      </c>
       <c r="F5" s="1">
         <v>554.8742999999999</v>
       </c>
-      <c r="G5" s="1">
-        <v>2209.2676</v>
-      </c>
       <c r="H5" s="1">
-        <v>39609.0754</v>
+        <v>29660.9562</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1055</v>
+        <v>29660.9562</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1335</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39609.0754</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0111</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E6" s="1">
+        <v>2209.2676</v>
+      </c>
       <c r="F6" s="1">
         <v>546.9083000000001</v>
       </c>
-      <c r="G6" s="1">
-        <v>2756.1759</v>
-      </c>
       <c r="H6" s="1">
-        <v>50134.2892</v>
+        <v>40186.1361</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1411</v>
+        <v>40186.1361</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.1055</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50134.2892</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0106</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.485</v>
       </c>
+      <c r="E7" s="1">
+        <v>2756.1759</v>
+      </c>
       <c r="F7" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G7" s="1">
-        <v>3362.788</v>
-      </c>
       <c r="H7" s="1">
-        <v>55148.3784</v>
+        <v>45200.183</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8423</v>
+        <v>45200.183</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.1411</v>
+      </c>
+      <c r="M7" s="1">
         <v>1.538</v>
       </c>
-      <c r="L7" s="1">
-        <v>3815.0987</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-6184.9013</v>
+        <v>3058.0682</v>
       </c>
       <c r="O7" s="1">
-        <v>3815.0987</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58963.4771</v>
+        <v>-6941.9318</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0195</v>
+        <v>-0.0993</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E8" s="1">
+        <v>3362.788</v>
+      </c>
       <c r="F8" s="1">
-        <v>626.5042999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3989.2923</v>
+        <v>619.0721</v>
       </c>
       <c r="H8" s="1">
-        <v>67372.76390000001</v>
+        <v>56792.1092</v>
       </c>
       <c r="I8" s="1">
-        <v>70635.8498</v>
+        <v>3058.0682</v>
       </c>
       <c r="J8" s="1">
-        <v>17.7064</v>
+        <v>59850.1774</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60509.678</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9939</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10635.8498</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>3179.249</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70552.0129</v>
+        <v>-10509.678</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.023</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.414</v>
       </c>
+      <c r="E9" s="1">
+        <v>3981.8601</v>
+      </c>
       <c r="F9" s="1">
-        <v>610.7643</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4600.0566</v>
+        <v>603.5189</v>
       </c>
       <c r="H9" s="1">
-        <v>79690.0006</v>
+        <v>68980.55070000001</v>
       </c>
       <c r="I9" s="1">
-        <v>81271.69960000001</v>
+        <v>2548.3902</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6675</v>
+        <v>71528.9409</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71019.3561</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8357</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10635.8498</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2543.3992</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82233.3998</v>
+        <v>-10509.678</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0209</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E10" s="1">
+        <v>4585.379</v>
+      </c>
       <c r="F10" s="1">
-        <v>581.2766</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5181.3332</v>
+        <v>574.381</v>
       </c>
       <c r="H10" s="1">
-        <v>94313.217</v>
+        <v>83465.3621</v>
       </c>
       <c r="I10" s="1">
-        <v>91907.5494</v>
+        <v>2038.7122</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7382</v>
+        <v>85504.0742</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81529.0341</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7802</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10635.8498</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1907.5494</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96220.76639999999</v>
+        <v>-10509.678</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0432</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.699</v>
       </c>
+      <c r="E11" s="1">
+        <v>5159.76</v>
+      </c>
       <c r="F11" s="1">
-        <v>600.9294</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5782.2626</v>
+        <v>593.8007</v>
       </c>
       <c r="H11" s="1">
-        <v>101809.4539</v>
+        <v>90848.9262</v>
       </c>
       <c r="I11" s="1">
-        <v>102543.3992</v>
+        <v>1529.0341</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7341</v>
+        <v>92377.96030000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92038.71219999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8378</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10635.8498</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1271.6996</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103081.1534</v>
+        <v>-10509.678</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0296</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E12" s="1">
+        <v>5753.5607</v>
+      </c>
       <c r="F12" s="1">
-        <v>588.9338</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6371.1964</v>
+        <v>581.9473</v>
       </c>
       <c r="H12" s="1">
-        <v>114463.6399</v>
+        <v>103367.3202</v>
       </c>
       <c r="I12" s="1">
-        <v>113179.249</v>
+        <v>1019.3561</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7642</v>
+        <v>104386.6763</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102548.3902</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.8235</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10635.8498</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>635.8498</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115099.4897</v>
+        <v>-10509.678</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0178</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.696</v>
       </c>
+      <c r="E13" s="1">
+        <v>6335.508</v>
+      </c>
       <c r="F13" s="1">
-        <v>568.8837</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6940.0801</v>
+        <v>562.1351</v>
       </c>
       <c r="H13" s="1">
-        <v>129079.2435</v>
+        <v>117834.747</v>
       </c>
       <c r="I13" s="1">
-        <v>123815.0987</v>
+        <v>509.678</v>
       </c>
       <c r="J13" s="1">
-        <v>17.8406</v>
+        <v>118344.425</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113058.0682</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.8451</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10635.8498</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>129079.2435</v>
+        <v>-10509.678</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0318</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E14" s="1">
+        <v>6897.6431</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6940.0801</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6335.508</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122624.2301</v>
       </c>
       <c r="I14" s="1">
-        <v>123815.0987</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.8406</v>
+        <v>122624.2301</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113058.0682</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3908</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>123378.6618</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>123378.6618</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123378.6618</v>
+        <v>112630.7607</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1129</v>
+        <v>-0.0446</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.0055</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>555.3859</v>
       </c>
       <c r="G2" s="1">
-        <v>555.3859</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.182500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0055</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.182500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.1364</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>555.3859</v>
       </c>
       <c r="F3" s="1">
         <v>553.1203</v>
       </c>
       <c r="G3" s="1">
-        <v>1108.5061</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10020.4382</v>
       </c>
       <c r="I3" s="1">
-        <v>20031.6104</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0708</v>
+        <v>10020.4382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10031.6104</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0624</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10031.6104</v>
       </c>
-      <c r="O3" s="1">
-        <v>-31.6104</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19968.3896</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.2605</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1108.5061</v>
       </c>
       <c r="F4" s="1">
         <v>542.9488</v>
       </c>
       <c r="G4" s="1">
-        <v>1651.4549</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20136.9005</v>
       </c>
       <c r="I4" s="1">
-        <v>29946.1272</v>
+        <v>-31.6104</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1332</v>
+        <v>20105.2901</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19946.1272</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9937</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9914.5167</v>
       </c>
-      <c r="O4" s="1">
-        <v>53.8728</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30053.8728</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0029</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.0221</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1651.4549</v>
       </c>
       <c r="F5" s="1">
         <v>557.8636</v>
       </c>
       <c r="G5" s="1">
-        <v>2209.3185</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39609.9875</v>
+        <v>29608.2749</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>53.8728</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1051</v>
+        <v>29662.1477</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1658</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10053.8728</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39609.9875</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0111</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.2846</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2209.3185</v>
       </c>
       <c r="F6" s="1">
         <v>539.4748</v>
       </c>
       <c r="G6" s="1">
-        <v>2748.7933</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40187.0615</v>
       </c>
       <c r="I6" s="1">
-        <v>49864.0807</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1404</v>
+        <v>40187.0615</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39864.0807</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0436</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9864.0807</v>
       </c>
-      <c r="O6" s="1">
-        <v>135.9193</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50135.9193</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0106</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.485</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2748.7933</v>
       </c>
       <c r="F7" s="1">
         <v>614.8570999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3363.6504</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>55162.5207</v>
+        <v>45079.1103</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>135.9193</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8378</v>
+        <v>45215.0295</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.1898</v>
+      </c>
+      <c r="M7" s="1">
         <v>1.538</v>
       </c>
-      <c r="L7" s="1">
-        <v>3804.8797</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-6331.0396</v>
+        <v>3058.1387</v>
       </c>
       <c r="O7" s="1">
-        <v>3804.8797</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58967.4004</v>
+        <v>-7077.7806</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0194</v>
+        <v>-0.09909999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.9765</v>
       </c>
       <c r="E8" s="1">
+        <v>3363.6504</v>
+      </c>
+      <c r="F8" s="1">
+        <v>769.1891000000001</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>781.2064</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4144.8568</v>
-      </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>56806.673</v>
       </c>
       <c r="I8" s="1">
-        <v>73262.15119999999</v>
+        <v>3058.1387</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6754</v>
+        <v>59864.8117</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>63058.1387</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.7469</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-13262.1512</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>542.7284</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70542.72840000001</v>
+        <v>-13058.1387</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0228</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.414</v>
       </c>
       <c r="E9" s="1">
+        <v>4132.8395</v>
+      </c>
+      <c r="F9" s="1">
+        <v>485.1117</v>
+      </c>
+      <c r="G9" s="1">
         <v>80000</v>
       </c>
-      <c r="F9" s="1">
-        <v>473.0943</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4617.9511</v>
-      </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71596.07120000001</v>
       </c>
       <c r="I9" s="1">
-        <v>81500.6155</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6487</v>
+        <v>71596.07120000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71505.8731</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3019</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-8238.4642</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2304.2642</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82304.26420000001</v>
+        <v>-8447.734399999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0219</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.2974</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4617.9511</v>
       </c>
       <c r="F10" s="1">
         <v>326.4246</v>
       </c>
       <c r="G10" s="1">
-        <v>4944.3758</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>84058.2555</v>
       </c>
       <c r="I10" s="1">
-        <v>87473.3377</v>
+        <v>1552.2656</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6915</v>
+        <v>85610.52099999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77478.5953</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.7777</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5972.7222</v>
       </c>
-      <c r="O10" s="1">
-        <v>6331.5419</v>
-      </c>
-      <c r="P10" s="1">
-        <v>96331.5419</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0436</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.699</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4944.3758</v>
       </c>
       <c r="F11" s="1">
         <v>735.119</v>
       </c>
       <c r="G11" s="1">
-        <v>5679.4948</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>87056.6131</v>
       </c>
       <c r="I11" s="1">
-        <v>100484.2086</v>
+        <v>5579.5433</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6925</v>
+        <v>92636.15640000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90489.46610000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.3015</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13010.8708</v>
       </c>
-      <c r="O11" s="1">
-        <v>3320.6711</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103320.6711</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0283</v>
+        <v>-0.0311</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.0595</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5679.4948</v>
       </c>
       <c r="F12" s="1">
         <v>443.2496</v>
       </c>
       <c r="G12" s="1">
-        <v>6122.7443</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>102036.6668</v>
       </c>
       <c r="I12" s="1">
-        <v>108489.0742</v>
+        <v>2568.6725</v>
       </c>
       <c r="J12" s="1">
-        <v>17.719</v>
+        <v>104605.3393</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98494.3318</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.3421</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8004.8657</v>
       </c>
-      <c r="O12" s="1">
-        <v>5315.8054</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115315.8054</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0176</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.696</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6122.7443</v>
       </c>
       <c r="F13" s="1">
         <v>329.1808</v>
       </c>
       <c r="G13" s="1">
-        <v>6451.9251</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>113877.534</v>
       </c>
       <c r="I13" s="1">
-        <v>114643.4379</v>
+        <v>4563.8068</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7689</v>
+        <v>118441.3408</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104648.6954</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0918</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6154.3636</v>
       </c>
-      <c r="O13" s="1">
-        <v>9161.441800000001</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129161.4418</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0307</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.8704</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6451.9251</v>
       </c>
       <c r="F14" s="1">
         <v>-6451.9251</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>114700.3887</v>
       </c>
       <c r="I14" s="1">
-        <v>114643.4379</v>
+        <v>8409.4432</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7689</v>
+        <v>123109.8319</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104648.6954</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2198</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>114700.3887</v>
       </c>
-      <c r="O14" s="1">
-        <v>123861.8305</v>
-      </c>
-      <c r="P14" s="1">
-        <v>123861.8305</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1099</v>
+        <v>-0.0415</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.0055</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>555.3859</v>
       </c>
       <c r="G2" s="1">
-        <v>555.3859</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.182500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0055</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.182500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.1364</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>555.3859</v>
       </c>
       <c r="F3" s="1">
         <v>551.3773</v>
       </c>
       <c r="G3" s="1">
-        <v>1106.7632</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19968.5536</v>
+        <v>10020.4382</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0707</v>
+        <v>10020.4382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0055</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19968.5536</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.2605</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1106.7632</v>
       </c>
       <c r="F4" s="1">
         <v>547.6301</v>
       </c>
       <c r="G4" s="1">
-        <v>1654.3933</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30053.3783</v>
+        <v>20105.2388</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1335</v>
+        <v>20105.2388</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0707</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30053.3783</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0028</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.0221</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1654.3933</v>
       </c>
       <c r="F5" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2209.2676</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39609.0754</v>
+        <v>29660.9562</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1055</v>
+        <v>29660.9562</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1335</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39609.0754</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0111</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.2846</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2209.2676</v>
       </c>
       <c r="F6" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2756.1759</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50134.2892</v>
+        <v>40186.1361</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1411</v>
+        <v>40186.1361</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.1055</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50134.2892</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0106</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.485</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2756.1759</v>
       </c>
       <c r="F7" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3362.788</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>55148.3784</v>
+        <v>45200.183</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8423</v>
+        <v>45200.183</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.1411</v>
+      </c>
+      <c r="M7" s="1">
         <v>1.538</v>
       </c>
-      <c r="L7" s="1">
-        <v>3815.0987</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-6184.9013</v>
+        <v>3058.0682</v>
       </c>
       <c r="O7" s="1">
-        <v>3815.0987</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58963.4771</v>
+        <v>-6941.9318</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0195</v>
+        <v>-0.0993</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.9765</v>
       </c>
       <c r="E8" s="1">
+        <v>3362.788</v>
+      </c>
+      <c r="F8" s="1">
+        <v>769.1849</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>813.7778</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4176.5658</v>
-      </c>
       <c r="H8" s="1">
-        <v>70535.5141</v>
+        <v>56792.1092</v>
       </c>
       <c r="I8" s="1">
-        <v>73815.0987</v>
+        <v>3058.0682</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6736</v>
+        <v>59850.1774</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>63058.0682</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.7517</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-13815.0987</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70535.5141</v>
+        <v>-13058.0682</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0228</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.414</v>
       </c>
       <c r="E9" s="1">
+        <v>4131.973</v>
+      </c>
+      <c r="F9" s="1">
+        <v>567.6055</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>523.0127</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4699.5785</v>
-      </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71581.06</v>
       </c>
       <c r="I9" s="1">
-        <v>82922.84149999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6447</v>
+        <v>71581.06</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72942.3508</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6532</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-9107.742700000001</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>892.2573</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82306.34510000001</v>
+        <v>-9884.2826</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.022</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.2974</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4699.5785</v>
       </c>
       <c r="F10" s="1">
         <v>344.8472</v>
       </c>
       <c r="G10" s="1">
-        <v>5044.4257</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>85544.07739999999</v>
       </c>
       <c r="I10" s="1">
-        <v>89232.6483</v>
+        <v>115.7174</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6894</v>
+        <v>85659.7948</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79252.1577</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8637</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6309.8069</v>
       </c>
-      <c r="O10" s="1">
-        <v>4582.4504</v>
-      </c>
-      <c r="P10" s="1">
-        <v>96403.6087</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0444</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.699</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5044.4257</v>
       </c>
       <c r="F11" s="1">
         <v>764.5766</v>
       </c>
       <c r="G11" s="1">
-        <v>5809.0022</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>88818.2117</v>
       </c>
       <c r="I11" s="1">
-        <v>102764.8888</v>
+        <v>3805.9105</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6906</v>
+        <v>92624.1222</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92784.3982</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.3935</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13532.2405</v>
       </c>
-      <c r="O11" s="1">
-        <v>1050.2099</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103330.474</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0289</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.0595</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5809.0022</v>
       </c>
       <c r="F12" s="1">
         <v>469.1299</v>
       </c>
       <c r="G12" s="1">
-        <v>6278.1321</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>104363.3723</v>
       </c>
       <c r="I12" s="1">
-        <v>111237.1394</v>
+        <v>273.67</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7182</v>
+        <v>104637.0423</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101256.6488</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.431</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8472.250599999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>2577.9593</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115369.6247</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.018</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.696</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6278.1321</v>
       </c>
       <c r="F13" s="1">
         <v>354.2116</v>
       </c>
       <c r="G13" s="1">
-        <v>6632.3437</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>116767.6065</v>
       </c>
       <c r="I13" s="1">
-        <v>117859.4798</v>
+        <v>1801.4194</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7704</v>
+        <v>118569.0259</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107878.9892</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.1833</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6622.3404</v>
       </c>
-      <c r="O13" s="1">
-        <v>5955.6189</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129311.2427</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0314</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.8704</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6632.3437</v>
       </c>
       <c r="F14" s="1">
         <v>-6632.3437</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117907.8166</v>
       </c>
       <c r="I14" s="1">
-        <v>117859.4798</v>
+        <v>5179.079</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7704</v>
+        <v>123086.8957</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107878.9892</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2656</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>117907.8166</v>
       </c>
-      <c r="O14" s="1">
-        <v>123863.4355</v>
-      </c>
-      <c r="P14" s="1">
-        <v>123863.4355</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1109</v>
+        <v>-0.0426</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.0055</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>555.3859</v>
       </c>
       <c r="G2" s="1">
-        <v>555.3859</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.182500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0055</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.182500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.1364</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>555.3859</v>
       </c>
       <c r="F3" s="1">
         <v>551.3773</v>
       </c>
       <c r="G3" s="1">
-        <v>1106.7632</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19968.5536</v>
+        <v>10020.4382</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0707</v>
+        <v>10020.4382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0055</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19968.5536</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.2605</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1106.7632</v>
       </c>
       <c r="F4" s="1">
         <v>547.6301</v>
       </c>
       <c r="G4" s="1">
-        <v>1654.3933</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30053.3783</v>
+        <v>20105.2388</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1335</v>
+        <v>20105.2388</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0707</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30053.3783</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0028</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.0221</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1654.3933</v>
       </c>
       <c r="F5" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2209.2676</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39609.0754</v>
+        <v>29660.9562</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1055</v>
+        <v>29660.9562</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1335</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39609.0754</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0111</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.2846</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2209.2676</v>
       </c>
       <c r="F6" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2756.1759</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50134.2892</v>
+        <v>40186.1361</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1411</v>
+        <v>40186.1361</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.1055</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50134.2892</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0106</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.485</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2756.1759</v>
       </c>
       <c r="F7" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3362.788</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>55148.3784</v>
+        <v>45200.183</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8423</v>
+        <v>45200.183</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.1411</v>
+      </c>
+      <c r="M7" s="1">
         <v>1.538</v>
       </c>
-      <c r="L7" s="1">
-        <v>3815.0987</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-6184.9013</v>
+        <v>3058.0682</v>
       </c>
       <c r="O7" s="1">
-        <v>3815.0987</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58963.4771</v>
+        <v>-6941.9318</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0195</v>
+        <v>-0.0993</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.9765</v>
       </c>
       <c r="E8" s="1">
+        <v>3362.788</v>
+      </c>
+      <c r="F8" s="1">
+        <v>769.1849</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>813.7778</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4176.5658</v>
-      </c>
       <c r="H8" s="1">
-        <v>70535.5141</v>
+        <v>56792.1092</v>
       </c>
       <c r="I8" s="1">
-        <v>73815.0987</v>
+        <v>3058.0682</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6736</v>
+        <v>59850.1774</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>63058.0682</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.7517</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-13815.0987</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70535.5141</v>
+        <v>-13058.0682</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0228</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.414</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4131.973</v>
       </c>
       <c r="F9" s="1">
         <v>574.2506</v>
       </c>
       <c r="G9" s="1">
-        <v>4750.8164</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82301.71829999999</v>
+        <v>71581.06</v>
       </c>
       <c r="I9" s="1">
-        <v>83815.0987</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6423</v>
+        <v>71581.06</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73058.06819999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6812</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82301.71829999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0219</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.2974</v>
       </c>
       <c r="E10" s="1">
+        <v>4706.2236</v>
+      </c>
+      <c r="F10" s="1">
+        <v>440.6119</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>396.0191</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5146.8355</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>85665.03449999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91061.2178</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6927</v>
+        <v>85665.03449999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81120.1205</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.2368</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-7246.1191</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2753.8809</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96439.15360000001</v>
+        <v>-8062.0523</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0448</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.699</v>
       </c>
       <c r="E11" s="1">
+        <v>5146.8355</v>
+      </c>
+      <c r="F11" s="1">
+        <v>674.4983999999999</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>720.599</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5867.4344</v>
-      </c>
       <c r="H11" s="1">
-        <v>103309.0915</v>
+        <v>90621.3615</v>
       </c>
       <c r="I11" s="1">
-        <v>103815.0987</v>
+        <v>1937.9477</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6934</v>
+        <v>92559.3092</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93058.06819999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0806</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12753.8809</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103309.0915</v>
+        <v>-11937.9477</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0294</v>
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.0595</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5821.3339</v>
       </c>
       <c r="F12" s="1">
         <v>553.7252</v>
       </c>
       <c r="G12" s="1">
-        <v>6421.1596</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115361.2694</v>
+        <v>104584.9206</v>
       </c>
       <c r="I12" s="1">
-        <v>113815.0987</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.725</v>
+        <v>104584.9206</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103058.0682</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7035</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115361.2694</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0181</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.696</v>
       </c>
       <c r="E13" s="1">
+        <v>6375.0591</v>
+      </c>
+      <c r="F13" s="1">
+        <v>443.8209</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>397.7203</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6818.88</v>
-      </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>118570.3615</v>
       </c>
       <c r="I13" s="1">
-        <v>121250.8782</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7816</v>
+        <v>118570.3615</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111355.7431</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4674</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-7435.7795</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>2564.2205</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>129389.2507</v>
+        <v>-8297.6749</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0321</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.8704</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6818.88</v>
       </c>
       <c r="F14" s="1">
         <v>-6818.88</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121224.0021</v>
       </c>
       <c r="I14" s="1">
-        <v>121250.8782</v>
+        <v>1702.3251</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7816</v>
+        <v>122926.3273</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111355.7431</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3305</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121224.0021</v>
       </c>
-      <c r="O14" s="1">
-        <v>123788.2227</v>
-      </c>
-      <c r="P14" s="1">
-        <v>123788.2227</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1119</v>
+        <v>-0.0439</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.0055</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>555.3859</v>
       </c>
       <c r="G2" s="1">
-        <v>555.3859</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.182500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.0055</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.182500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.1364</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>555.3859</v>
       </c>
       <c r="F3" s="1">
         <v>551.3773</v>
       </c>
       <c r="G3" s="1">
-        <v>1106.7632</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19968.5536</v>
+        <v>10020.4382</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0707</v>
+        <v>10020.4382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0055</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19968.5536</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.2605</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1106.7632</v>
       </c>
       <c r="F4" s="1">
         <v>547.6301</v>
       </c>
       <c r="G4" s="1">
-        <v>1654.3933</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30053.3783</v>
+        <v>20105.2388</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1335</v>
+        <v>20105.2388</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0707</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30053.3783</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0028</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.0221</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1654.3933</v>
       </c>
       <c r="F5" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2209.2676</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39609.0754</v>
+        <v>29660.9562</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1055</v>
+        <v>29660.9562</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1335</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39609.0754</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0111</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.2846</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2209.2676</v>
       </c>
       <c r="F6" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2756.1759</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50134.2892</v>
+        <v>40186.1361</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1411</v>
+        <v>40186.1361</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.1055</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50134.2892</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0106</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.485</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2756.1759</v>
       </c>
       <c r="F7" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3362.788</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>55148.3784</v>
+        <v>45200.183</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8423</v>
+        <v>45200.183</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.1411</v>
+      </c>
+      <c r="M7" s="1">
         <v>1.538</v>
       </c>
-      <c r="L7" s="1">
-        <v>3815.0987</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-6184.9013</v>
+        <v>3058.0682</v>
       </c>
       <c r="O7" s="1">
-        <v>3815.0987</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58963.4771</v>
+        <v>-6941.9318</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0195</v>
+        <v>-0.0993</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.9765</v>
       </c>
       <c r="E8" s="1">
+        <v>3362.788</v>
+      </c>
+      <c r="F8" s="1">
+        <v>769.1849</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>813.7778</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4176.5658</v>
-      </c>
       <c r="H8" s="1">
-        <v>70535.5141</v>
+        <v>56792.1092</v>
       </c>
       <c r="I8" s="1">
-        <v>73815.0987</v>
+        <v>3058.0682</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6736</v>
+        <v>59850.1774</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>63058.0682</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.7517</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-13815.0987</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70535.5141</v>
+        <v>-13058.0682</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0228</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.414</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4131.973</v>
       </c>
       <c r="F9" s="1">
         <v>574.2506</v>
       </c>
       <c r="G9" s="1">
-        <v>4750.8164</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>82301.71829999999</v>
+        <v>71581.06</v>
       </c>
       <c r="I9" s="1">
-        <v>83815.0987</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6423</v>
+        <v>71581.06</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73058.06819999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6812</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82301.71829999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0219</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.2974</v>
       </c>
       <c r="E10" s="1">
+        <v>4706.2236</v>
+      </c>
+      <c r="F10" s="1">
+        <v>545.4351</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>500.8423</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5251.6587</v>
-      </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>85665.03449999999</v>
       </c>
       <c r="I10" s="1">
-        <v>92979.2098</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7047</v>
+        <v>85665.03449999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83038.1125</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6443</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9164.111000000001</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>835.889</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96429.2059</v>
+        <v>-9980.0442</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0447</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.699</v>
       </c>
       <c r="E11" s="1">
+        <v>5251.6587</v>
+      </c>
+      <c r="F11" s="1">
+        <v>566.1312</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>612.2317</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5863.8904</v>
-      </c>
       <c r="H11" s="1">
-        <v>103246.6906</v>
+        <v>92467.0045</v>
       </c>
       <c r="I11" s="1">
-        <v>103815.0987</v>
+        <v>19.9558</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7041</v>
+        <v>92486.96030000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93058.06819999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7197</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10835.889</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103246.6906</v>
+        <v>-10019.9558</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0299</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.0595</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5817.7898</v>
       </c>
       <c r="F12" s="1">
         <v>553.7252</v>
       </c>
       <c r="G12" s="1">
-        <v>6417.6156</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>115297.5976</v>
+        <v>104521.2489</v>
       </c>
       <c r="I12" s="1">
-        <v>113815.0987</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7348</v>
+        <v>104521.2489</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103058.0682</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7143</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115297.5976</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0181</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.696</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6371.515</v>
       </c>
       <c r="F13" s="1">
         <v>534.8738</v>
       </c>
       <c r="G13" s="1">
-        <v>6952.4893</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>129310.0443</v>
+        <v>118504.4453</v>
       </c>
       <c r="I13" s="1">
-        <v>123815.0987</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.8087</v>
+        <v>118504.4453</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113058.0682</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7443</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129310.0443</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.032</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.8704</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6906.3888</v>
       </c>
       <c r="F14" s="1">
-        <v>-6952.4893</v>
+        <v>-6906.3888</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122779.7083</v>
       </c>
       <c r="I14" s="1">
-        <v>123815.0987</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.8087</v>
+        <v>122779.7083</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113058.0682</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.3701</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>123599.2696</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>123599.2696</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123599.2696</v>
+        <v>122779.7083</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1128</v>
+        <v>-0.0445</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.8222</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.8406</v>
+        <v>16.3908</v>
       </c>
       <c r="D3" s="1">
-        <v>17.7689</v>
+        <v>16.2198</v>
       </c>
       <c r="E3" s="1">
-        <v>17.7704</v>
+        <v>16.2656</v>
       </c>
       <c r="F3" s="1">
-        <v>17.7816</v>
+        <v>16.3305</v>
       </c>
       <c r="G3" s="1">
-        <v>17.8087</v>
+        <v>16.3701</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0023</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0218</v>
+        <v>0.0394</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0177</v>
+        <v>0.044</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0173</v>
+        <v>0.044</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0177</v>
+        <v>0.0427</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0192</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1377</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1355</v>
+        <v>0.1576</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1328</v>
+        <v>0.1561</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1342</v>
+        <v>0.1572</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1355</v>
+        <v>0.1579</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1362</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.1311</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3106</v>
+        <v>0.1208</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.286</v>
+        <v>0.1514</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.2802</v>
+        <v>0.1504</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.2803</v>
+        <v>0.1415</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.2903</v>
+        <v>0.1329</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0533</v>
+        <v>-0.1129</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0624</v>
+        <v>0.0498</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0615</v>
+        <v>0.0487</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0595</v>
+        <v>0.0457</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0562</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3815.0987</v>
+        <v>3058.0682</v>
       </c>
       <c r="D8" s="1">
-        <v>3804.8797</v>
+        <v>3058.1387</v>
       </c>
       <c r="E8" s="1">
-        <v>3815.0987</v>
+        <v>3058.0682</v>
       </c>
       <c r="F8" s="1">
-        <v>3815.0987</v>
+        <v>3058.0682</v>
       </c>
       <c r="G8" s="1">
-        <v>3815.0987</v>
+        <v>3058.0682</v>
       </c>
     </row>
   </sheetData>
